--- a/example_output1.xlsx
+++ b/example_output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C443"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1460</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>269501</v>
+        <v>69501</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>356001</v>
+        <v>56001</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>496001</v>
+        <v>96001</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5640</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61395</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72501</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1234501</v>
+        <v>34501</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1360</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1460</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1580</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17449503</v>
+        <v>449503</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1864503</v>
+        <v>64503</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1957503</v>
+        <v>57503</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2049503</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21169503</v>
+        <v>169503</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2272503</v>
+        <v>72503</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2372503</v>
+        <v>72503</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2447503</v>
+        <v>47503</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2519503</v>
+        <v>19503</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2619503</v>
+        <v>19503</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2784503</v>
+        <v>84503</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>281399504</v>
+        <v>1399504</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>291049504</v>
+        <v>1049504</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>302</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>328995</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>361499504</v>
+        <v>1499504</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>371709504</v>
+        <v>1709504</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38163250401</v>
+        <v>163250401</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>393</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>403</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>411072504</v>
+        <v>1072504</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>42147250404</v>
+        <v>147250404</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>438504</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44359504</v>
+        <v>359504</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>451037504</v>
+        <v>1037504</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>461799504</v>
+        <v>1799504</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>47814504</v>
+        <v>814504</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>481929504</v>
+        <v>1929504</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>542</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>551619504</v>
+        <v>1619504</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>56552504</v>
+        <v>552504</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5727595</v>
+        <v>27595</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>58442504</v>
+        <v>442504</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>591028504</v>
+        <v>1028504</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>60919504</v>
+        <v>919504</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>61778504</v>
+        <v>778504</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>62798504</v>
+        <v>798504</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>63198</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>64163</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>65163</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>66163</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>673995</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>68379504</v>
+        <v>379504</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>69399504</v>
+        <v>399504</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>70379504</v>
+        <v>379504</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>71929504</v>
+        <v>929504</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>729495</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>73379504</v>
+        <v>379504</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7465</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>751743504</v>
+        <v>1743504</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>761825504</v>
+        <v>1825504</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>77240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>78240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>79240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>80240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>81100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>82100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>83100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>84140</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>85140</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>86140</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>87180</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>88180</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>89180</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>90630004</v>
+        <v>630004</v>
       </c>
     </row>
     <row r="92">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>91637004</v>
+        <v>637004</v>
       </c>
     </row>
     <row r="93">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9265</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9365</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>94240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>95552504</v>
+        <v>552504</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>96555504</v>
+        <v>555504</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>97240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>981649504</v>
+        <v>1649504</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>991697504</v>
+        <v>1697504</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1001684004</v>
+        <v>1684004</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>101649504</v>
+        <v>649504</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1029215</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>103240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1041165004</v>
+        <v>1165004</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>105200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>106200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>107100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>108150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>109150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>110150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>111150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>112275</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>113275</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>114275</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>115240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>116240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>117240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>118240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>119240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>120240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>121240</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>122463004</v>
+        <v>463004</v>
       </c>
     </row>
     <row r="124">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>123463004</v>
+        <v>463004</v>
       </c>
     </row>
     <row r="125">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>124336004</v>
+        <v>336004</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>125348004</v>
+        <v>348004</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>126308504</v>
+        <v>308504</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>127270004</v>
+        <v>270004</v>
       </c>
     </row>
     <row r="129">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>128952504</v>
+        <v>952504</v>
       </c>
     </row>
     <row r="130">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>129749504</v>
+        <v>749504</v>
       </c>
     </row>
     <row r="131">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>130749004</v>
+        <v>749004</v>
       </c>
     </row>
     <row r="132">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>131749504</v>
+        <v>749504</v>
       </c>
     </row>
     <row r="133">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>132749504</v>
+        <v>749504</v>
       </c>
     </row>
     <row r="134">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1338825</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="135">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>134106</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1363</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>137212504</v>
+        <v>212504</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1383745</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="140">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>139251504</v>
+        <v>251504</v>
       </c>
     </row>
     <row r="141">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1404080</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>141305504</v>
+        <v>305504</v>
       </c>
     </row>
     <row r="143">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>14211390</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="144">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1436055</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>144468004</v>
+        <v>468004</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>145541004</v>
+        <v>541004</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>146945504</v>
+        <v>945504</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>147531504</v>
+        <v>531504</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>148339506</v>
+        <v>339506</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>14919506</v>
+        <v>19506</v>
       </c>
     </row>
     <row r="151">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>15032506</v>
+        <v>32506</v>
       </c>
     </row>
     <row r="152">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1512</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>15279506</v>
+        <v>79506</v>
       </c>
     </row>
     <row r="154">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15330006</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="155">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>15437506</v>
+        <v>37506</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>15514006</v>
+        <v>14006</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>15639506</v>
+        <v>39506</v>
       </c>
     </row>
     <row r="158">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>157449506</v>
+        <v>449506</v>
       </c>
     </row>
     <row r="159">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>15814506</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="160">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>15950506</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1602</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>16137506</v>
+        <v>37506</v>
       </c>
     </row>
     <row r="163">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>16254506</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>16339506</v>
+        <v>39506</v>
       </c>
     </row>
     <row r="165">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>16429506</v>
+        <v>29506</v>
       </c>
     </row>
     <row r="166">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>165197506</v>
+        <v>197506</v>
       </c>
     </row>
     <row r="167">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>16692506</v>
+        <v>92506</v>
       </c>
     </row>
     <row r="168">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>167124506</v>
+        <v>124506</v>
       </c>
     </row>
     <row r="169">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16842506</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="170">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>169199506</v>
+        <v>199506</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>17056506</v>
+        <v>56506</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>17180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1722</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1732</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>17429506</v>
+        <v>29506</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>17569006</v>
+        <v>69006</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>17680506</v>
+        <v>80506</v>
       </c>
     </row>
     <row r="178">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>17793506</v>
+        <v>93506</v>
       </c>
     </row>
     <row r="179">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>178120506</v>
+        <v>120506</v>
       </c>
     </row>
     <row r="180">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>179153506</v>
+        <v>153506</v>
       </c>
     </row>
     <row r="181">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>180142506</v>
+        <v>142506</v>
       </c>
     </row>
     <row r="182">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>181142506</v>
+        <v>142506</v>
       </c>
     </row>
     <row r="183">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>18247506</v>
+        <v>47506</v>
       </c>
     </row>
     <row r="184">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>18359006</v>
+        <v>59006</v>
       </c>
     </row>
     <row r="185">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>18475506</v>
+        <v>75506</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>18596506</v>
+        <v>96506</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>186205006</v>
+        <v>205006</v>
       </c>
     </row>
     <row r="188">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>187199506</v>
+        <v>199506</v>
       </c>
     </row>
     <row r="189">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>18832506</v>
+        <v>32506</v>
       </c>
     </row>
     <row r="190">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>18936506</v>
+        <v>36506</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>19046506</v>
+        <v>46506</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>19162006</v>
+        <v>62006</v>
       </c>
     </row>
     <row r="193">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>19280006</v>
+        <v>80006</v>
       </c>
     </row>
     <row r="194">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1932</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>194169506</v>
+        <v>169506</v>
       </c>
     </row>
     <row r="196">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>195219506</v>
+        <v>219506</v>
       </c>
     </row>
     <row r="197">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>196145506</v>
+        <v>145506</v>
       </c>
     </row>
     <row r="198">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>197217506</v>
+        <v>217506</v>
       </c>
     </row>
     <row r="199">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1982</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>199664506</v>
+        <v>664506</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>200109506</v>
+        <v>109506</v>
       </c>
     </row>
     <row r="202">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>20180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>202252006</v>
+        <v>252006</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>203716006</v>
+        <v>716006</v>
       </c>
     </row>
     <row r="205">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>204488506</v>
+        <v>488506</v>
       </c>
     </row>
     <row r="206">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>20524506</v>
+        <v>24506</v>
       </c>
     </row>
     <row r="207">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>20615506</v>
+        <v>15506</v>
       </c>
     </row>
     <row r="208">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>20759506</v>
+        <v>59506</v>
       </c>
     </row>
     <row r="209">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>20854506</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="210">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>209174506</v>
+        <v>174506</v>
       </c>
     </row>
     <row r="211">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>210389506</v>
+        <v>389506</v>
       </c>
     </row>
     <row r="212">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>21120006</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="213">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>21214506</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="214">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>21326506</v>
+        <v>26506</v>
       </c>
     </row>
     <row r="215">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2153</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2163</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2183</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>219189506</v>
+        <v>189506</v>
       </c>
     </row>
     <row r="221">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>220543506</v>
+        <v>543506</v>
       </c>
     </row>
     <row r="222">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>22121506</v>
+        <v>21506</v>
       </c>
     </row>
     <row r="223">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>22229506</v>
+        <v>29506</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>22379506</v>
+        <v>79506</v>
       </c>
     </row>
     <row r="225">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>22432506</v>
+        <v>32506</v>
       </c>
     </row>
     <row r="226">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>22554506</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="227">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>22673006</v>
+        <v>73006</v>
       </c>
     </row>
     <row r="228">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>22739506</v>
+        <v>39506</v>
       </c>
     </row>
     <row r="229">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>22872506</v>
+        <v>72506</v>
       </c>
     </row>
     <row r="230">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>22953006</v>
+        <v>53006</v>
       </c>
     </row>
     <row r="231">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>23070006</v>
+        <v>70006</v>
       </c>
     </row>
     <row r="232">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2313</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>23222006</v>
+        <v>22006</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>23317506</v>
+        <v>17506</v>
       </c>
     </row>
     <row r="235">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>23440506</v>
+        <v>40506</v>
       </c>
     </row>
     <row r="236">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>235326506</v>
+        <v>326506</v>
       </c>
     </row>
     <row r="237">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>236152506</v>
+        <v>152506</v>
       </c>
     </row>
     <row r="238">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>23716506</v>
+        <v>16506</v>
       </c>
     </row>
     <row r="239">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>23852006</v>
+        <v>52006</v>
       </c>
     </row>
     <row r="240">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2392</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>24161506</v>
+        <v>61506</v>
       </c>
     </row>
     <row r="243">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>24215506</v>
+        <v>15506</v>
       </c>
     </row>
     <row r="244">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>24338506</v>
+        <v>38506</v>
       </c>
     </row>
     <row r="245">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>24453506</v>
+        <v>53506</v>
       </c>
     </row>
     <row r="246">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>24639506</v>
+        <v>39506</v>
       </c>
     </row>
     <row r="248">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24754506</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="249">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>24880006</v>
+        <v>80006</v>
       </c>
     </row>
     <row r="250">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>24943506</v>
+        <v>43506</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>25039506</v>
+        <v>39506</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2513</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>25235506</v>
+        <v>35506</v>
       </c>
     </row>
     <row r="254">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>25346506</v>
+        <v>46506</v>
       </c>
     </row>
     <row r="255">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>25459506</v>
+        <v>59506</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>25547506</v>
+        <v>47506</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>25633506</v>
+        <v>33506</v>
       </c>
     </row>
     <row r="258">
@@ -4302,2782 +4302,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>25749506</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>06-34419</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>25873506</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>06-34819</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v>259369506</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>06-35019</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>26035506</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>06-36119</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>26162506</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>06-36419</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>26286506</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>06-36519</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>263108006</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>06-38119</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>26448506</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>06-38619</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>26569506</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>06-39315</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>26635506</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>06-39615</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>26767506</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>06-39715</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v>26820506</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>06-40015</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C270" t="n">
-        <v>26929506</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>06-40119</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>27038506</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>06-41519</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>271139506</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>06-45019</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>27280</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>06-51189</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C274" t="n">
-        <v>2731595</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>06-51512</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v>274109506</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>06-51612</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>27589506</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>06-52012</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C277" t="n">
-        <v>27687506</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>06-52112</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v>27759506</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>06-52212</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>27841506</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>06-52312</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>27951506</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>06-52612</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>06-52712</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>06-52812</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>282119506</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>06-60118</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>2831186506</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>06-60918</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>284956506</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>06-61018</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>285477506</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>06-62113</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>286367506</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>06-62818</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>2871499506</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>06-64119</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>288367506</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>06-64419</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>2891699506</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>06-66500</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>2901053506</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>06-70598</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>291130</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>06-70998</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>292314006</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>06-75500</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>293615506</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>06-75800</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>294739506</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>06-76300</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>2951139506</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>06-76500</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>296499506</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>06-76900</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>2971976506</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>06-77400</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>2981727506</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>06-78800</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>299237506</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>06-79300</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>300150</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>06-79400</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>301244</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>06-80713</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>3021422506</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>06-80813</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>3031373506</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>06-80819</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>3041367506</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>06-81719</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>305120</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>06-81918</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>30680</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>06-81919</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>30780</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>06-82018</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>308240</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>06-82218</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>309150</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>06-82318</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>31010495</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>06-82501</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>311839506</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>06-82618</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>312299506</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>06-82818</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>313110</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>06-83118</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>314200</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>06-83119</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>315200</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>06-83222</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>316240</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>06-83318</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>317150</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>06-83319</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>318150</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>06-83322</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>319150</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>06-83418</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>32080</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>06-83419</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>32180</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>06-83422</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>32280</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>06-83718</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>32360</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>06-83719</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>32460</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>06-83722</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>32560</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>06-83818</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>326180</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>06-83819</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>327180</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>06-83822</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>328180</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>06-84122</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>329140</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>06-84522</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>3301054006</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>06-84722</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>331120</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>06-84822</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>3321009506</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>06-85413</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>3331039506</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>06-85419</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>3341039506</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>06-85501</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>335240</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>06-85513</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>336240</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>06-85519</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>337240</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>06-85613</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>338922006</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>06-85713</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>339120</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>06-85719</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>340120</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>06-85813</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>341666506</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>06-85913</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>342180</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>06-85919</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>343180</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>06-86013</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>34410295</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>06-86019</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>3451029506</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>06-86113</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>3461149506</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>06-86119</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>3471149506</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>06-86219</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>348847506</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>06-86419</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>349679506</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>06-86519</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>350389506</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>06-86613</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>351562006</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>06-86713</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>3521279506</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>06-86719</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C354" t="n">
-        <v>3531279506</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>06-86819</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>3541145506</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>06-86919</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C356" t="n">
-        <v>355120</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>06-87013</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v>356509506</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>06-87113</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v>357445006</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>06-87213</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C359" t="n">
-        <v>358130</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>06-87219</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v>359130</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>06-87313</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v>360160</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>06-87319</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C362" t="n">
-        <v>361160</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>06-87413</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C363" t="n">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>06-87419</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>06-87513</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C365" t="n">
-        <v>364299506</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>06-87613</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>365614006</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>06-87713</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C367" t="n">
-        <v>366245506</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>06-88129</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>367489506</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>06-88519</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>368130</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>06-88613</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>36990</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>06-88619</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>37090</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>06-88901</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>06-88918</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C373" t="n">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>06-88919</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>06-88922</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C375" t="n">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>06-89001</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v>375177506</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>06-89019</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v>376177506</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>06-89101</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C378" t="n">
-        <v>377222506</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>06-89119</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v>3782225</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>06-89122</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v>379222506</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>06-89218</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C381" t="n">
-        <v>380327506</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>06-89319</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C382" t="n">
-        <v>381359506</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>06-89419</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v>382110</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>06-89542</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v>383503506</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>06-89719</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v>384749506</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>06-90100</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C386" t="n">
-        <v>385169506</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>06-90130</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>386199506</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>06-90342</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>38750</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>06-90542</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C389" t="n">
-        <v>388369506</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>06-90742</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C390" t="n">
-        <v>389759506</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>06-91410</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C391" t="n">
-        <v>390685506</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>06-91610</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C392" t="n">
-        <v>391799506</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>06-95519</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>392139506</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>06-95799</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C394" t="n">
-        <v>393449506</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>06-95901</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C395" t="n">
-        <v>394339506</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>06-95919</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C396" t="n">
-        <v>395339506</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>06-96013</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C397" t="n">
-        <v>396100</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>06-96019</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>397100</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>06-96101</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>39880</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>06-96113</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C400" t="n">
-        <v>39980</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>06-96119</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C401" t="n">
-        <v>40080</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>06-96201</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C402" t="n">
-        <v>4011049506</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>06-96601</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>402467506</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>06-97101</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>403566506</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07-06125</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C405" t="n">
-        <v>404369507</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07-06162</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C406" t="n">
-        <v>4052167507</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07-06164</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C407" t="n">
-        <v>4064199007</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>07-06166</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C408" t="n">
-        <v>4076241007</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>07-06168</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C409" t="n">
-        <v>40882830</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>07-06169</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C410" t="n">
-        <v>4099304007</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>07-07235</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C411" t="n">
-        <v>410379507</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>07-07262</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C412" t="n">
-        <v>4112138007</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>07-07264</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C413" t="n">
-        <v>4124159007</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>07-07266</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C414" t="n">
-        <v>4136207507</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>07-07268</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C415" t="n">
-        <v>4148253007</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>07-07270</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C416" t="n">
-        <v>41587507</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07-09061</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C417" t="n">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07-09062</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C418" t="n">
-        <v>4173</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07-09063</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C419" t="n">
-        <v>4183</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07-09064</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C420" t="n">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07-09065</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C421" t="n">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07-09066</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C422" t="n">
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07-09067</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C423" t="n">
-        <v>4223</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07-09068</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C424" t="n">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07-09069</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C425" t="n">
-        <v>4243</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>07-09070</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C426" t="n">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>07-09235</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C427" t="n">
-        <v>426369507</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>07-09262</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C428" t="n">
-        <v>4272132007</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>07-09264</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C429" t="n">
-        <v>4284152507</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>07-09266</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C430" t="n">
-        <v>4296213507</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>07-09268</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C431" t="n">
-        <v>4308264007</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>07-09270</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C432" t="n">
-        <v>43172507</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>07-10061</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C433" t="n">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>07-10062</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C434" t="n">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>07-10063</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C435" t="n">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>07-10064</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C436" t="n">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>07-10065</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C437" t="n">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>07-10066</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C438" t="n">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>07-10067</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C439" t="n">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>07-10068</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C440" t="n">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>07-10069</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C441" t="n">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>07-10070</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C442" t="n">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>07-10235</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C443" t="n">
-        <v>442319507</v>
+        <v>49506</v>
       </c>
     </row>
   </sheetData>
